--- a/data_RMS-formatted.xlsx
+++ b/data_RMS-formatted.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuam\TheFolder\CarnegieMellon\Career\Eberly_related\micArrayProject\MicArrayProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABED6D30-DE08-4FFA-9CDD-1015D52DDD0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E209701-07B9-4DA7-ACED-1035E9A7F779}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="1368" windowWidth="18876" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1000 ms" sheetId="1" r:id="rId1"/>
-    <sheet name="200 ms" sheetId="2" r:id="rId2"/>
-    <sheet name="50 ms" sheetId="3" r:id="rId3"/>
+    <sheet name="2000ms" sheetId="4" r:id="rId1"/>
+    <sheet name="1000 ms" sheetId="1" r:id="rId2"/>
+    <sheet name="200 ms" sheetId="2" r:id="rId3"/>
+    <sheet name="50 ms" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
   <si>
     <t>V1</t>
   </si>
@@ -75,6 +76,42 @@
   </si>
   <si>
     <t>Range</t>
+  </si>
+  <si>
+    <t>Mic1</t>
+  </si>
+  <si>
+    <t>Mic2</t>
+  </si>
+  <si>
+    <t>Mic3</t>
+  </si>
+  <si>
+    <t>Mic4</t>
+  </si>
+  <si>
+    <t>Mic5</t>
+  </si>
+  <si>
+    <t>Mic6</t>
+  </si>
+  <si>
+    <t>Mic7</t>
+  </si>
+  <si>
+    <t>Mic8</t>
+  </si>
+  <si>
+    <t>Mic9</t>
+  </si>
+  <si>
+    <t>Mic10</t>
+  </si>
+  <si>
+    <t>Mic11</t>
+  </si>
+  <si>
+    <t>Mic12</t>
   </si>
 </sst>
 </file>
@@ -607,6 +644,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF8696B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -914,11 +956,1304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B177BB9-A54B-4680-BA35-4E2EA6CE7CE8}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1.03802921857198E-2</v>
+      </c>
+      <c r="C2">
+        <v>9.6956984144327893E-3</v>
+      </c>
+      <c r="D2">
+        <v>5.3281736360396301E-3</v>
+      </c>
+      <c r="E2">
+        <v>1.1959001042564201E-2</v>
+      </c>
+      <c r="F2">
+        <v>6.8956962117613903E-3</v>
+      </c>
+      <c r="G2">
+        <v>5.6756722912268496E-3</v>
+      </c>
+      <c r="H2">
+        <v>7.0396849658597204E-3</v>
+      </c>
+      <c r="I2">
+        <v>6.8023137054987297E-3</v>
+      </c>
+      <c r="J2">
+        <v>4.95887298291339E-3</v>
+      </c>
+      <c r="K2">
+        <v>7.9884879477317497E-3</v>
+      </c>
+      <c r="L2">
+        <v>6.0141475044071602E-3</v>
+      </c>
+      <c r="M2">
+        <v>5.6569602733531101E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2.7225250614091399E-3</v>
+      </c>
+      <c r="C3">
+        <v>4.5351281073785698E-3</v>
+      </c>
+      <c r="D3">
+        <v>5.0343408234423802E-3</v>
+      </c>
+      <c r="E3">
+        <v>8.3260625231245996E-3</v>
+      </c>
+      <c r="F3">
+        <v>7.0460492915671398E-3</v>
+      </c>
+      <c r="G3">
+        <v>8.2074044988765301E-3</v>
+      </c>
+      <c r="H3">
+        <v>1.06219339340878E-2</v>
+      </c>
+      <c r="I3">
+        <v>8.5450182947941298E-3</v>
+      </c>
+      <c r="J3">
+        <v>7.67036777495735E-3</v>
+      </c>
+      <c r="K3">
+        <v>1.2876273725857101E-2</v>
+      </c>
+      <c r="L3">
+        <v>9.0887022378873597E-3</v>
+      </c>
+      <c r="M3">
+        <v>9.6226857845628597E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1.8070404649731E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.30487535972317E-2</v>
+      </c>
+      <c r="D4">
+        <v>8.1300702977324495E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.83998124353668E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.14014628995218E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.0689016662399299E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.4681536680535999E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.19777994198447E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.00802369976409E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.57857366992179E-2</v>
+      </c>
+      <c r="L4">
+        <v>1.19078728146875E-2</v>
+      </c>
+      <c r="M4">
+        <v>1.26441576985209E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>8.7897751924332097E-3</v>
+      </c>
+      <c r="C5">
+        <v>1.20070883205027E-2</v>
+      </c>
+      <c r="D5">
+        <v>8.5121345926672705E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.54593500483662E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.13523408081016E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.05580552260584E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.4097849841467501E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.23701704974736E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.0188043498429999E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.59650053576815E-2</v>
+      </c>
+      <c r="L5">
+        <v>1.37050349939378E-2</v>
+      </c>
+      <c r="M5">
+        <v>1.10371060909733E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>5.6937397086901202E-3</v>
+      </c>
+      <c r="C6">
+        <v>2.80028128816599E-2</v>
+      </c>
+      <c r="D6">
+        <v>9.39344464353274E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.23014158959786E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.7386369904851099E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.07044083801431E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.33895539042227E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.3027407884767399E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.07790165959308E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.38866185876952E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.16584324765638E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.1600397799341499E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>5.3433649696046802E-3</v>
+      </c>
+      <c r="C7">
+        <v>3.37568371522649E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.0192170589490601E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.28751076348295E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.50198145962144E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.1849131594294401E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.32042931454495E-2</v>
+      </c>
+      <c r="I7">
+        <v>1.1794087587406301E-2</v>
+      </c>
+      <c r="J7">
+        <v>9.9424109003835304E-3</v>
+      </c>
+      <c r="K7">
+        <v>1.45826781133583E-2</v>
+      </c>
+      <c r="L7">
+        <v>1.08859167164714E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.03950370064487E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>4.0447833744023899E-3</v>
+      </c>
+      <c r="C8">
+        <v>2.0893227952658799E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.0798919244204499E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.0818780250137701E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.3308978596230999E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.2447161679072401E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.1754912869475E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.16009853329688E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.0332524670477799E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.4633140263184401E-2</v>
+      </c>
+      <c r="L8">
+        <v>1.13250716311704E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.17321432866055E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>3.6897175530830502E-3</v>
+      </c>
+      <c r="C9">
+        <v>9.8484008305130006E-3</v>
+      </c>
+      <c r="D9">
+        <v>2.9812374903281501E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.0082435755197501E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.0755331823482799E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.80096264018027E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.16352700036379E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.2186557680823501E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.20922966587277E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.2755267989504399E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.2943981306712799E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.2011034982001701E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>3.3655657829931699E-3</v>
+      </c>
+      <c r="C10">
+        <v>8.2346620062723405E-3</v>
+      </c>
+      <c r="D10">
+        <v>2.9887388028196901E-2</v>
+      </c>
+      <c r="E10">
+        <v>9.8548622831878194E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.0509719619870701E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.6361331756525701E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.11853747601371E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.1892575740308799E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.2052395363238801E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.3234830840945899E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.15404537961806E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.1882176245252099E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>3.7280880252012301E-3</v>
+      </c>
+      <c r="C11">
+        <v>8.8000533800463108E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.50148929107413E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.00492260589987E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.09252214864767E-2</v>
+      </c>
+      <c r="G11">
+        <v>3.2386603777031599E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.18381749270439E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.15715500544344E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.2802145704835699E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.4297398181637101E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.1284256171293101E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.1807818518906599E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>3.9327251535375696E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.06904153748655E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.25475493465363E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.12536175909636E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.5834140798177999E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.33007270575244E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.3939641640611899E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.2154892558598401E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.1034854942582601E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.5702417825549601E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.11530889270591E-2</v>
+      </c>
+      <c r="M12">
+        <v>1.19445956768002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>4.6775685152540096E-3</v>
+      </c>
+      <c r="C13">
+        <v>1.51083537683329E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.11457619846615E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.34033253335216E-2</v>
+      </c>
+      <c r="F13">
+        <v>4.0280143748246802E-2</v>
+      </c>
+      <c r="G13">
+        <v>1.2572862394307001E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.31199685805515E-2</v>
+      </c>
+      <c r="I13">
+        <v>1.5137563796174199E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.0289854809972E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.50299758131961E-2</v>
+      </c>
+      <c r="L13">
+        <v>1.10471606023118E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.13638429252148E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>5.8645578751331797E-3</v>
+      </c>
+      <c r="C14">
+        <v>1.3355324844425901E-2</v>
+      </c>
+      <c r="D14">
+        <v>8.6122125718114707E-3</v>
+      </c>
+      <c r="E14">
+        <v>1.53480008126223E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.5315364825272701E-2</v>
+      </c>
+      <c r="G14">
+        <v>1.0119677215168699E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.30030028745195E-2</v>
+      </c>
+      <c r="I14">
+        <v>1.2722537691715E-2</v>
+      </c>
+      <c r="J14">
+        <v>9.7514622413757499E-3</v>
+      </c>
+      <c r="K14">
+        <v>1.3770861902991999E-2</v>
+      </c>
+      <c r="L14">
+        <v>1.10431756518009E-2</v>
+      </c>
+      <c r="M14">
+        <v>9.85505903944176E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>8.5400292188256496E-3</v>
+      </c>
+      <c r="C15">
+        <v>8.6874119385935995E-3</v>
+      </c>
+      <c r="D15">
+        <v>7.6036129931136504E-3</v>
+      </c>
+      <c r="E15">
+        <v>3.7666216958273199E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.08329405995897E-2</v>
+      </c>
+      <c r="G15">
+        <v>9.6144154169227492E-3</v>
+      </c>
+      <c r="H15">
+        <v>1.54784765210543E-2</v>
+      </c>
+      <c r="I15">
+        <v>1.1384188413897701E-2</v>
+      </c>
+      <c r="J15">
+        <v>9.5527683302235201E-3</v>
+      </c>
+      <c r="K15">
+        <v>1.6100873953590899E-2</v>
+      </c>
+      <c r="L15">
+        <v>1.27270502791848E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.10607762051614E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>4.92104873870152E-3</v>
+      </c>
+      <c r="C16">
+        <v>8.1247406998725194E-3</v>
+      </c>
+      <c r="D16">
+        <v>7.3436751806794601E-3</v>
+      </c>
+      <c r="E16">
+        <v>1.67093173390753E-2</v>
+      </c>
+      <c r="F16">
+        <v>9.9743747959674996E-3</v>
+      </c>
+      <c r="G16">
+        <v>9.9460478356560005E-3</v>
+      </c>
+      <c r="H16">
+        <v>3.39873943680295E-2</v>
+      </c>
+      <c r="I16">
+        <v>1.2740871736247101E-2</v>
+      </c>
+      <c r="J16">
+        <v>1.01369223010946E-2</v>
+      </c>
+      <c r="K16">
+        <v>1.79937917167221E-2</v>
+      </c>
+      <c r="L16">
+        <v>1.21383467523862E-2</v>
+      </c>
+      <c r="M16">
+        <v>1.0433352797301501E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>4.5117455671378004E-3</v>
+      </c>
+      <c r="C17">
+        <v>9.1756267968757001E-3</v>
+      </c>
+      <c r="D17">
+        <v>7.43242871155801E-3</v>
+      </c>
+      <c r="E17">
+        <v>1.2827734458020301E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.02192255741155E-2</v>
+      </c>
+      <c r="G17">
+        <v>1.05824497004683E-2</v>
+      </c>
+      <c r="H17">
+        <v>1.66286107626216E-2</v>
+      </c>
+      <c r="I17">
+        <v>1.52580440542361E-2</v>
+      </c>
+      <c r="J17">
+        <v>9.8209170515723403E-3</v>
+      </c>
+      <c r="K17">
+        <v>1.7264516671277701E-2</v>
+      </c>
+      <c r="L17">
+        <v>1.3317395004315899E-2</v>
+      </c>
+      <c r="M17">
+        <v>1.0867328618539E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>4.3783690189560997E-3</v>
+      </c>
+      <c r="C18">
+        <v>8.0408197870584907E-3</v>
+      </c>
+      <c r="D18">
+        <v>9.1975079045774899E-3</v>
+      </c>
+      <c r="E18">
+        <v>1.1521825258613E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.23820346579486E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.06276060523672E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.30101432771817E-2</v>
+      </c>
+      <c r="I18">
+        <v>2.4903137690369798E-2</v>
+      </c>
+      <c r="J18">
+        <v>1.13349313334212E-2</v>
+      </c>
+      <c r="K18">
+        <v>1.94022839723304E-2</v>
+      </c>
+      <c r="L18">
+        <v>1.68801680004276E-2</v>
+      </c>
+      <c r="M18">
+        <v>1.2247336131403099E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>3.9650091000090204E-3</v>
+      </c>
+      <c r="C19">
+        <v>8.0404181770740296E-3</v>
+      </c>
+      <c r="D19">
+        <v>1.0092780987204401E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.22090562803767E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.3246971027687401E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.1797267614215399E-2</v>
+      </c>
+      <c r="H19">
+        <v>1.30119240486653E-2</v>
+      </c>
+      <c r="I19">
+        <v>2.6623972706373601E-2</v>
+      </c>
+      <c r="J19">
+        <v>1.40914327243083E-2</v>
+      </c>
+      <c r="K19">
+        <v>1.5332145127521599E-2</v>
+      </c>
+      <c r="L19">
+        <v>1.792056473442E-2</v>
+      </c>
+      <c r="M19">
+        <v>1.49875330258689E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>3.7624392217434298E-3</v>
+      </c>
+      <c r="C20">
+        <v>8.1014153742544805E-3</v>
+      </c>
+      <c r="D20">
+        <v>9.3871469900599393E-3</v>
+      </c>
+      <c r="E20">
+        <v>1.0242352867398699E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.09531833283505E-2</v>
+      </c>
+      <c r="G20">
+        <v>1.25710386793501E-2</v>
+      </c>
+      <c r="H20">
+        <v>1.14614555868008E-2</v>
+      </c>
+      <c r="I20">
+        <v>1.2869516090577401E-2</v>
+      </c>
+      <c r="J20">
+        <v>2.3986408671654299E-2</v>
+      </c>
+      <c r="K20">
+        <v>1.6288899245847099E-2</v>
+      </c>
+      <c r="L20">
+        <v>1.3284397854849E-2</v>
+      </c>
+      <c r="M20">
+        <v>1.64851390743673E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>3.6635658785235501E-3</v>
+      </c>
+      <c r="C21">
+        <v>7.9606700915201903E-3</v>
+      </c>
+      <c r="D21">
+        <v>9.3425009878759999E-3</v>
+      </c>
+      <c r="E21">
+        <v>1.05296885777495E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.13728479722634E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.32774862812414E-2</v>
+      </c>
+      <c r="H21">
+        <v>1.17155434088403E-2</v>
+      </c>
+      <c r="I21">
+        <v>1.23689444401094E-2</v>
+      </c>
+      <c r="J21">
+        <v>3.1453723343060597E-2</v>
+      </c>
+      <c r="K21">
+        <v>1.58206910923115E-2</v>
+      </c>
+      <c r="L21">
+        <v>1.3238439123257501E-2</v>
+      </c>
+      <c r="M21">
+        <v>2.3227235346568301E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>3.7090526346400402E-3</v>
+      </c>
+      <c r="C22">
+        <v>7.6710156948438697E-3</v>
+      </c>
+      <c r="D22">
+        <v>9.2036113087874301E-3</v>
+      </c>
+      <c r="E22">
+        <v>1.1183730398814399E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.0490242096141E-2</v>
+      </c>
+      <c r="G22">
+        <v>1.19530557608221E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.18272656228018E-2</v>
+      </c>
+      <c r="I22">
+        <v>1.25388465496503E-2</v>
+      </c>
+      <c r="J22">
+        <v>1.48859407108335E-2</v>
+      </c>
+      <c r="K22">
+        <v>1.23431388991795E-2</v>
+      </c>
+      <c r="L22">
+        <v>1.3695092435584399E-2</v>
+      </c>
+      <c r="M22">
+        <v>3.87956529391792E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>3.7075952396797098E-3</v>
+      </c>
+      <c r="C23">
+        <v>7.8219706083613501E-3</v>
+      </c>
+      <c r="D23">
+        <v>8.9903098612444006E-3</v>
+      </c>
+      <c r="E23">
+        <v>1.12004179136234E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.07235316163217E-2</v>
+      </c>
+      <c r="G23">
+        <v>1.16811096593918E-2</v>
+      </c>
+      <c r="H23">
+        <v>1.1639845078341199E-2</v>
+      </c>
+      <c r="I23">
+        <v>1.34729279448184E-2</v>
+      </c>
+      <c r="J23">
+        <v>1.3915471708937701E-2</v>
+      </c>
+      <c r="K23">
+        <v>1.5929841660002698E-2</v>
+      </c>
+      <c r="L23">
+        <v>1.6185605403656302E-2</v>
+      </c>
+      <c r="M23">
+        <v>2.06174751010792E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>3.8828427793136202E-3</v>
+      </c>
+      <c r="C24">
+        <v>7.7416287193836503E-3</v>
+      </c>
+      <c r="D24">
+        <v>8.6309096454077194E-3</v>
+      </c>
+      <c r="E24">
+        <v>1.19871915642325E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.10620537521702E-2</v>
+      </c>
+      <c r="G24">
+        <v>1.0356172584761699E-2</v>
+      </c>
+      <c r="H24">
+        <v>1.24767982413826E-2</v>
+      </c>
+      <c r="I24">
+        <v>1.8228071491079498E-2</v>
+      </c>
+      <c r="J24">
+        <v>1.0560242646874199E-2</v>
+      </c>
+      <c r="K24">
+        <v>1.55507961725154E-2</v>
+      </c>
+      <c r="L24">
+        <v>4.6723058361196099E-2</v>
+      </c>
+      <c r="M24">
+        <v>1.4659562538442E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>4.46763546635891E-3</v>
+      </c>
+      <c r="C25">
+        <v>7.8710525685358797E-3</v>
+      </c>
+      <c r="D25">
+        <v>9.12585740052641E-3</v>
+      </c>
+      <c r="E25">
+        <v>1.23506154998954E-2</v>
+      </c>
+      <c r="F25">
+        <v>1.24724407623508E-2</v>
+      </c>
+      <c r="G25">
+        <v>1.11172080258199E-2</v>
+      </c>
+      <c r="H25">
+        <v>1.33912595211816E-2</v>
+      </c>
+      <c r="I25">
+        <v>1.4689090213991699E-2</v>
+      </c>
+      <c r="J25">
+        <v>1.07916487991756E-2</v>
+      </c>
+      <c r="K25">
+        <v>2.02861542311733E-2</v>
+      </c>
+      <c r="L25">
+        <v>1.9343117592747101E-2</v>
+      </c>
+      <c r="M25">
+        <v>1.3702464398900599E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>4.7117900844450503E-3</v>
+      </c>
+      <c r="C26">
+        <v>7.8371145840065801E-3</v>
+      </c>
+      <c r="D26">
+        <v>7.6875821412001298E-3</v>
+      </c>
+      <c r="E26">
+        <v>1.4044668213200899E-2</v>
+      </c>
+      <c r="F26">
+        <v>9.9015151273400496E-3</v>
+      </c>
+      <c r="G26">
+        <v>1.12040350948598E-2</v>
+      </c>
+      <c r="H26">
+        <v>1.7001149401774E-2</v>
+      </c>
+      <c r="I26">
+        <v>1.17449656414982E-2</v>
+      </c>
+      <c r="J26">
+        <v>1.0157052114059199E-2</v>
+      </c>
+      <c r="K26">
+        <v>3.6160284246670199E-2</v>
+      </c>
+      <c r="L26">
+        <v>1.26573357356195E-2</v>
+      </c>
+      <c r="M26">
+        <v>1.20999526389917E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>2.7698376546681199E-3</v>
+      </c>
+      <c r="C27">
+        <v>4.64380183023587E-3</v>
+      </c>
+      <c r="D27">
+        <v>5.5238196869698501E-3</v>
+      </c>
+      <c r="E27">
+        <v>9.5006408943007995E-3</v>
+      </c>
+      <c r="F27">
+        <v>7.7915562621894202E-3</v>
+      </c>
+      <c r="G27">
+        <v>8.1570997838871194E-3</v>
+      </c>
+      <c r="H27">
+        <v>1.20546158049223E-2</v>
+      </c>
+      <c r="I27">
+        <v>9.3019626963533296E-3</v>
+      </c>
+      <c r="J27">
+        <v>8.3835552317053398E-3</v>
+      </c>
+      <c r="K27">
+        <v>1.2924260182550501E-2</v>
+      </c>
+      <c r="L27">
+        <v>1.0181766064524801E-2</v>
+      </c>
+      <c r="M27">
+        <v>8.7637106876480401E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>5.5124685998536203E-3</v>
+      </c>
+      <c r="C28">
+        <v>8.1348134118217393E-3</v>
+      </c>
+      <c r="D28">
+        <v>7.2888610356141399E-3</v>
+      </c>
+      <c r="E28">
+        <v>1.4420484745399E-2</v>
+      </c>
+      <c r="F28">
+        <v>9.8005114168692696E-3</v>
+      </c>
+      <c r="G28">
+        <v>8.7838475804170608E-3</v>
+      </c>
+      <c r="H28">
+        <v>1.68724600956589E-2</v>
+      </c>
+      <c r="I28">
+        <v>1.3026692976150001E-2</v>
+      </c>
+      <c r="J28">
+        <v>9.1328496142656507E-3</v>
+      </c>
+      <c r="K28">
+        <v>2.1396061219041002E-2</v>
+      </c>
+      <c r="L28">
+        <v>1.17152067016617E-2</v>
+      </c>
+      <c r="M28">
+        <v>1.01242005855516E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>5.4287507961665697E-3</v>
+      </c>
+      <c r="C29">
+        <v>9.9827516831580507E-3</v>
+      </c>
+      <c r="D29">
+        <v>7.7667185615935301E-3</v>
+      </c>
+      <c r="E29">
+        <v>1.27586235758133E-2</v>
+      </c>
+      <c r="F29">
+        <v>9.2184379585081907E-3</v>
+      </c>
+      <c r="G29">
+        <v>7.4640325299385997E-3</v>
+      </c>
+      <c r="H29">
+        <v>1.4224929679568E-2</v>
+      </c>
+      <c r="I29">
+        <v>1.0659942763302999E-2</v>
+      </c>
+      <c r="J29">
+        <v>6.8307165846479201E-3</v>
+      </c>
+      <c r="K29">
+        <v>2.33126042175247E-2</v>
+      </c>
+      <c r="L29">
+        <v>1.15868639136719E-2</v>
+      </c>
+      <c r="M29">
+        <v>7.8172665436218192E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>1.7137069357598699E-4</v>
+      </c>
+      <c r="C30">
+        <v>2.6529222418056802E-4</v>
+      </c>
+      <c r="D30">
+        <v>3.36468261989518E-4</v>
+      </c>
+      <c r="E30">
+        <v>5.9354713462064898E-4</v>
+      </c>
+      <c r="F30">
+        <v>4.7955734674111502E-4</v>
+      </c>
+      <c r="G30">
+        <v>5.0364665708032598E-4</v>
+      </c>
+      <c r="H30">
+        <v>7.4521732136682405E-4</v>
+      </c>
+      <c r="I30">
+        <v>6.1925975659546503E-4</v>
+      </c>
+      <c r="J30">
+        <v>5.2829080143581403E-4</v>
+      </c>
+      <c r="K30">
+        <v>1.0007127186437499E-3</v>
+      </c>
+      <c r="L30">
+        <v>5.9527902616278699E-4</v>
+      </c>
+      <c r="M30">
+        <v>5.7571541326579699E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>3.87236583458558E-4</v>
+      </c>
+      <c r="C31">
+        <v>2.7864427480099298E-4</v>
+      </c>
+      <c r="D31">
+        <v>2.37903112250483E-4</v>
+      </c>
+      <c r="E31">
+        <v>4.1187057101034301E-4</v>
+      </c>
+      <c r="F31">
+        <v>3.0234217378408401E-4</v>
+      </c>
+      <c r="G31">
+        <v>3.9231777191162099E-4</v>
+      </c>
+      <c r="H31">
+        <v>3.8158416894034497E-4</v>
+      </c>
+      <c r="I31">
+        <v>7.7057729867069597E-4</v>
+      </c>
+      <c r="J31">
+        <v>3.18460259797911E-4</v>
+      </c>
+      <c r="K31">
+        <v>6.1935498720313404E-4</v>
+      </c>
+      <c r="L31">
+        <v>2.7603414882450402E-4</v>
+      </c>
+      <c r="M31">
+        <v>2.0532619244430301E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:M31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="63" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="53" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3611,7 +4946,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:M60">
+  <conditionalFormatting sqref="B2:M61">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3625,7 +4960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472AA7DB-1D1E-7743-858A-E4C228B76B62}">
   <dimension ref="A1:AA301"/>
   <sheetViews>
@@ -16177,7 +17512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCA4EB2-C63E-C043-A8E2-D5AAF33E6E7D}">
   <dimension ref="A1:AA1201"/>
   <sheetViews>
